--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-related-person.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-related-person.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -415,7 +415,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1377,17 +1377,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.68359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.68359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.27734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.27734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.44140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1396,25 +1396,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.9375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.61328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="38.27734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="25.75" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="28.1484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-related-person.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-related-person.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="472">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/RelatedPerson</t>
+    <t>http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -259,7 +259,7 @@
 </t>
   </si>
   <si>
-    <t>A person that is related to a patient, but who is not a direct target of care</t>
+    <t>CH Core RelatedPerson</t>
   </si>
   <si>
     <t>Information about a person that is involved in the care for a patient, but who is not the target of healthcare, nor has a formal responsibility in the care process.</t>
@@ -408,7 +408,7 @@
     <t>RelatedPerson.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -440,7 +440,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -458,7 +458,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -502,7 +502,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -563,6 +563,344 @@
     <t>RelatedPerson.extension</t>
   </si>
   <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.extension:citizenship</t>
+  </si>
+  <si>
+    <t>citizenship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-citizenship|5.3.0-ballot-tc1}
+</t>
+  </si>
+  <si>
+    <t>Citizenship(s) of related person</t>
+  </si>
+  <si>
+    <t>The patient's legal status as citizen of a country.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>RelatedPerson.modifierExtension</t>
+  </si>
+  <si>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>A human identifier for this person</t>
+  </si>
+  <si>
+    <t>Identifier for a person within a particular scope.</t>
+  </si>
+  <si>
+    <t>People are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the patient. Examples are national person identifier and local identifier.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>NK1-33</t>
+  </si>
+  <si>
+    <t>RelatedPerson.identifier.id</t>
+  </si>
+  <si>
+    <t>RelatedPerson.identifier.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>RelatedPerson.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>RelatedPerson.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>RelatedPerson.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>RelatedPerson.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>RelatedPerson.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-organization)
+</t>
+  </si>
+  <si>
+    <t>✕ This element will be removed in PML(C) documents</t>
+  </si>
+  <si>
+    <t>✕ Unsupported reference. It'll be stripped when generating PML(C) documents.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>RelatedPerson.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark a related person record as not to be used, such as if it was created in error.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>RelatedPerson.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient)
+</t>
+  </si>
+  <si>
+    <t>The patient this person is related to</t>
+  </si>
+  <si>
+    <t>The patient this person is related to.</t>
+  </si>
+  <si>
+    <t>We need to know which patient this RelatedPerson is related to.</t>
+  </si>
+  <si>
+    <t>scoper[classCode=PSN|ANM and determinerCode='INSTANCE']/playedRole[classCode='PAT']/id</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>RelatedPerson.relationship</t>
+  </si>
+  <si>
+    <t>The nature of the relationship</t>
+  </si>
+  <si>
+    <t>The nature of the relationship between a patient and the related person.</t>
+  </si>
+  <si>
+    <t>We need to know the relationship with the patient since it influences the interpretation of the information attributed to this person.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype|4.0.1</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>NK1-3</t>
+  </si>
+  <si>
+    <t>RelatedPerson.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-humanname}
+</t>
+  </si>
+  <si>
+    <t>A name associated with the person</t>
+  </si>
+  <si>
+    <t>A name associated with the person.</t>
+  </si>
+  <si>
+    <t>Related persons need to be identified by name, but it is uncommon to need details about multiple other names for that person.</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>NK1-2</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>A contact detail for the person</t>
+  </si>
+  <si>
+    <t>A contact detail for the person, e.g. a telephone number or an email address.</t>
+  </si>
+  <si>
+    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently, and also to help with identification.</t>
+  </si>
+  <si>
+    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>telecom</t>
+  </si>
+  <si>
+    <t>NK1-5 / NK1-6 / NK1-40</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom.id</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom.extension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
@@ -570,318 +908,401 @@
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>RelatedPerson.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>RelatedPerson.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
+    <t>RelatedPerson.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
 </t>
   </si>
   <si>
-    <t>A human identifier for this person</t>
-  </si>
-  <si>
-    <t>Identifier for a person within a particular scope.</t>
-  </si>
-  <si>
-    <t>People are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the patient. Examples are national person identifier and local identifier.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>NK1-33</t>
-  </si>
-  <si>
-    <t>RelatedPerson.identifier.id</t>
-  </si>
-  <si>
-    <t>RelatedPerson.identifier.extension</t>
-  </si>
-  <si>
-    <t>RelatedPerson.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>RelatedPerson.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
 </t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>RelatedPerson.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>RelatedPerson.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>RelatedPerson.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:email</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-contactpoint-ech-46-email}
 </t>
   </si>
   <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>RelatedPerson.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed-epr/StructureDefinition/ch-emed-epr-organization)
+    <t>RelatedPerson.telecom:email.id</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:email.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:email.system</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:email.value</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:email.use</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:email.use.id</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom.use.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:email.use.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom.use.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:email.use.extension:emailCategory</t>
+  </si>
+  <si>
+    <t>emailCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-46-emailcategory}
 </t>
   </si>
   <si>
-    <t>✕ This element will be removed in PML(C) documents</t>
-  </si>
-  <si>
-    <t>✕ Unsupported reference. It'll be stripped when generating PML(C) documents.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>RelatedPerson.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:email.use.value</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom.use.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:email.rank</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:email.period</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:email.period.id</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom.period.id</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:email.period.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom.period.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:email.period.start</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom.period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark a related person record as not to be used, such as if it was created in error.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>RelatedPerson.patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t>Starting time with inclusive boundary</t>
+  </si>
+  <si>
+    <t>The start of the period. The boundary is inclusive.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
 </t>
   </si>
   <si>
-    <t>The patient this person is related to</t>
-  </si>
-  <si>
-    <t>The patient this person is related to.</t>
-  </si>
-  <si>
-    <t>We need to know which patient this RelatedPerson is related to.</t>
-  </si>
-  <si>
-    <t>scoper[classCode=PSN|ANM and determinerCode='INSTANCE']/playedRole[classCode='PAT']/id</t>
-  </si>
-  <si>
-    <t>PID-3</t>
-  </si>
-  <si>
-    <t>RelatedPerson.relationship</t>
-  </si>
-  <si>
-    <t>The nature of the relationship</t>
-  </si>
-  <si>
-    <t>The nature of the relationship between a patient and the related person.</t>
-  </si>
-  <si>
-    <t>We need to know the relationship with the patient since it influences the interpretation of the information attributed to this person.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/relatedperson-relationshiptype</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>NK1-3</t>
-  </si>
-  <si>
-    <t>RelatedPerson.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName
+    <t>./low</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:email.period.end</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom.period.end</t>
+  </si>
+  <si>
+    <t>End time with inclusive boundary, if not ongoing</t>
+  </si>
+  <si>
+    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
+    <t>DR.2</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:phone</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-contactpoint-ech-46-phone}
 </t>
   </si>
   <si>
-    <t>A name associated with the person</t>
-  </si>
-  <si>
-    <t>A name associated with the person.</t>
-  </si>
-  <si>
-    <t>Related persons need to be identified by name, but it is uncommon to need details about multiple other names for that person.</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>NK1-2</t>
-  </si>
-  <si>
-    <t>RelatedPerson.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
+    <t>RelatedPerson.telecom:phone.id</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:phone.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:phone.system</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:phone.value</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:phone.use</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:phone.use.id</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:phone.use.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:phone.use.extension:phoneCategory</t>
+  </si>
+  <si>
+    <t>phoneCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-46-phonecategory}
 </t>
   </si>
   <si>
-    <t>A contact detail for the person</t>
-  </si>
-  <si>
-    <t>A contact detail for the person, e.g. a telephone number or an email address.</t>
-  </si>
-  <si>
-    <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently, and also to help with identification.</t>
-  </si>
-  <si>
-    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
-  </si>
-  <si>
-    <t>telecom</t>
-  </si>
-  <si>
-    <t>NK1-5 / NK1-6 / NK1-40</t>
+    <t>RelatedPerson.telecom:phone.use.value</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:phone.rank</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:phone.period</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:phone.period.id</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:phone.period.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:phone.period.start</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:phone.period.end</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:internet</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-contactpoint-ech-46-internet}
+</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:internet.id</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:internet.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:internet.system</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:internet.value</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:internet.use</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:internet.use.id</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:internet.use.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:internet.use.extension:internetCategory</t>
+  </si>
+  <si>
+    <t>internetCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-46-internetcategory}
+</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:internet.use.value</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:internet.rank</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:internet.period</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:internet.period.id</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:internet.period.extension</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:internet.period.start</t>
+  </si>
+  <si>
+    <t>RelatedPerson.telecom:internet.period.end</t>
   </si>
   <si>
     <t>RelatedPerson.gender</t>
@@ -927,7 +1348,7 @@
     <t>RelatedPerson.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-address}
 </t>
   </si>
   <si>
@@ -1003,9 +1424,6 @@
   </si>
   <si>
     <t>RelatedPerson.communication.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>RelatedPerson.communication.modifierExtension</t>
@@ -1368,7 +1786,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM43"/>
+  <dimension ref="A1:AM99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1377,17 +1795,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.27734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.31640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.44140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.74609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1396,25 +1814,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.61328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.27734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.3515625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="28.47265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3202,7 +3620,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3224,14 +3642,12 @@
         <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>178</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3268,19 +3684,17 @@
         <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3295,7 +3709,7 @@
         <v>113</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3306,12 +3720,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3320,19 +3736,19 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>181</v>
@@ -3340,9 +3756,7 @@
       <c r="M18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="N18" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3391,7 +3805,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3400,7 +3814,7 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>113</v>
@@ -3417,10 +3831,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3431,30 +3845,30 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3502,7 +3916,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3514,24 +3928,24 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3542,7 +3956,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3551,19 +3965,21 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3611,36 +4027,36 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3651,7 +4067,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -3663,13 +4079,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3708,34 +4124,34 @@
         <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -3746,10 +4162,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3760,32 +4176,28 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -3809,60 +4221,60 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3879,25 +4291,25 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3922,13 +4334,13 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>77</v>
@@ -3946,7 +4358,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3961,21 +4373,21 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>212</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3998,19 +4410,19 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4023,7 +4435,7 @@
         <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>77</v>
@@ -4035,13 +4447,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4059,7 +4471,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4074,21 +4486,21 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4111,18 +4523,20 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4134,7 +4548,7 @@
         <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>77</v>
@@ -4170,7 +4584,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4185,21 +4599,21 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4222,15 +4636,17 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4243,7 +4659,7 @@
         <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>77</v>
@@ -4279,7 +4695,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4294,21 +4710,21 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4331,17 +4747,15 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>107</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>238</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4390,7 +4804,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4405,21 +4819,21 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4436,32 +4850,28 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>107</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>108</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q28" t="s" s="2">
-        <v>246</v>
-      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4505,7 +4915,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4520,21 +4930,21 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4542,7 +4952,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>86</v>
@@ -4551,28 +4961,32 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>107</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O29" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="R29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4616,10 +5030,10 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>86</v>
@@ -4631,21 +5045,21 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4653,10 +5067,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4668,17 +5082,17 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4703,13 +5117,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -4727,13 +5141,13 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
@@ -4742,21 +5156,21 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4779,17 +5193,17 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4814,13 +5228,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -4838,7 +5252,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4853,21 +5267,21 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4890,19 +5304,17 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -4951,7 +5363,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4966,21 +5378,21 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4991,7 +5403,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5003,17 +5415,19 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>150</v>
+        <v>274</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5038,37 +5452,35 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5077,21 +5489,21 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5111,16 +5523,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>101</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>102</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5171,7 +5583,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>287</v>
+        <v>103</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5183,10 +5595,10 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>291</v>
+        <v>104</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5197,14 +5609,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5220,21 +5632,21 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>293</v>
+        <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5270,19 +5682,19 @@
         <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5294,24 +5706,24 @@
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5319,10 +5731,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5331,21 +5743,19 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>303</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5369,13 +5779,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5393,36 +5803,36 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5430,7 +5840,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>86</v>
@@ -5442,19 +5852,23 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>231</v>
+        <v>100</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>107</v>
+        <v>298</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5502,7 +5916,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5517,21 +5931,21 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5542,31 +5956,31 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5591,13 +6005,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -5615,13 +6029,13 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
@@ -5630,21 +6044,21 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5664,18 +6078,20 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>100</v>
+        <v>316</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>101</v>
+        <v>317</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5724,7 +6140,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5736,7 +6152,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>104</v>
@@ -5745,26 +6161,26 @@
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -5773,20 +6189,18 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>106</v>
+        <v>233</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>176</v>
+        <v>322</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5835,40 +6249,42 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>112</v>
+        <v>324</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>104</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="D41" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -5881,25 +6297,25 @@
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>328</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>178</v>
+        <v>277</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -5948,7 +6364,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>324</v>
+        <v>273</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -5960,24 +6376,24 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5985,7 +6401,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>86</v>
@@ -6000,20 +6416,16 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>326</v>
+        <v>101</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6037,13 +6449,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6061,10 +6473,10 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>325</v>
+        <v>103</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>86</v>
@@ -6073,10 +6485,10 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>330</v>
+        <v>104</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6087,21 +6499,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6113,20 +6525,18 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>243</v>
+        <v>106</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6162,39 +6572,6237 @@
         <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
+      <c r="B44" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AK44" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM43" t="s" s="2">
+      <c r="M47" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AC48" s="2"/>
+      <c r="AD48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q56" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AC64" s="2"/>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q72" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="P77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AC80" s="2"/>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q88" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>77</v>
       </c>
     </row>
